--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt3</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H2">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N2">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q2">
-        <v>0.08680548138888887</v>
+        <v>0.2259235577547778</v>
       </c>
       <c r="R2">
-        <v>0.7812493324999998</v>
+        <v>2.033312019793</v>
       </c>
       <c r="S2">
-        <v>0.01079564113642863</v>
+        <v>0.0206052493057744</v>
       </c>
       <c r="T2">
-        <v>0.01079564113642862</v>
+        <v>0.0206052493057744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H3">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q3">
-        <v>2.941427945263889</v>
+        <v>3.522644470191889</v>
       </c>
       <c r="R3">
-        <v>26.472851507375</v>
+        <v>31.70380023172699</v>
       </c>
       <c r="S3">
-        <v>0.3658133106073203</v>
+        <v>0.321281092796426</v>
       </c>
       <c r="T3">
-        <v>0.3658133106073202</v>
+        <v>0.3212810927964259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H4">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N4">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q4">
-        <v>0.07341568140277777</v>
+        <v>0.1533376114143333</v>
       </c>
       <c r="R4">
-        <v>0.6607411326249999</v>
+        <v>1.380038502729</v>
       </c>
       <c r="S4">
-        <v>0.00913040671544752</v>
+        <v>0.0139850830189818</v>
       </c>
       <c r="T4">
-        <v>0.009130406715447518</v>
+        <v>0.0139850830189818</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H5">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N5">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q5">
-        <v>0.5201923659722222</v>
+        <v>0.5766647457911109</v>
       </c>
       <c r="R5">
-        <v>4.68173129375</v>
+        <v>5.189982712119999</v>
       </c>
       <c r="S5">
-        <v>0.06469418768369024</v>
+        <v>0.052594430483315</v>
       </c>
       <c r="T5">
-        <v>0.06469418768369022</v>
+        <v>0.052594430483315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H6">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N6">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q6">
-        <v>0.04205747077777778</v>
+        <v>0.05613996358722222</v>
       </c>
       <c r="R6">
-        <v>0.378517237</v>
+        <v>0.5052596722849999</v>
       </c>
       <c r="S6">
-        <v>0.005230514874845674</v>
+        <v>0.005120218348311432</v>
       </c>
       <c r="T6">
-        <v>0.005230514874845674</v>
+        <v>0.005120218348311432</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H7">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I7">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J7">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N7">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q7">
-        <v>0.06911420765277777</v>
+        <v>0.09041579357466664</v>
       </c>
       <c r="R7">
-        <v>0.6220278688749999</v>
+        <v>0.8137421421719998</v>
       </c>
       <c r="S7">
-        <v>0.008595450094969497</v>
+        <v>0.008246328918950651</v>
       </c>
       <c r="T7">
-        <v>0.008595450094969497</v>
+        <v>0.008246328918950651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H8">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N8">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P8">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q8">
-        <v>0.02342556016666666</v>
+        <v>0.01843227749311111</v>
       </c>
       <c r="R8">
-        <v>0.2108300415</v>
+        <v>0.165890497438</v>
       </c>
       <c r="S8">
-        <v>0.002913340689238098</v>
+        <v>0.001681106993857691</v>
       </c>
       <c r="T8">
-        <v>0.002913340689238098</v>
+        <v>0.001681106993857691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H9">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>51.019709</v>
       </c>
       <c r="O9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P9">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q9">
-        <v>0.7937816391916668</v>
+        <v>0.2873996896535556</v>
       </c>
       <c r="R9">
-        <v>7.144034752725</v>
+        <v>2.586597206882</v>
       </c>
       <c r="S9">
-        <v>0.09871936173026263</v>
+        <v>0.02621215031564573</v>
       </c>
       <c r="T9">
-        <v>0.09871936173026263</v>
+        <v>0.02621215031564573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H10">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N10">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P10">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q10">
-        <v>0.01981215280833333</v>
+        <v>0.01251025537933333</v>
       </c>
       <c r="R10">
-        <v>0.178309375275</v>
+        <v>0.112592298414</v>
       </c>
       <c r="S10">
-        <v>0.002463956059418047</v>
+        <v>0.001140991818347094</v>
       </c>
       <c r="T10">
-        <v>0.002463956059418047</v>
+        <v>0.001140991818347094</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H11">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N11">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O11">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P11">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q11">
-        <v>0.1403805079166667</v>
+        <v>0.04704796932444443</v>
       </c>
       <c r="R11">
-        <v>1.26342457125</v>
+        <v>0.4234317239199999</v>
       </c>
       <c r="S11">
-        <v>0.01745854710750899</v>
+        <v>0.004290987389251587</v>
       </c>
       <c r="T11">
-        <v>0.01745854710750899</v>
+        <v>0.004290987389251587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H12">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I12">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J12">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N12">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P12">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q12">
-        <v>0.01134974193333333</v>
+        <v>0.004580254478888888</v>
       </c>
       <c r="R12">
-        <v>0.1021476774</v>
+        <v>0.04122229031</v>
       </c>
       <c r="S12">
-        <v>0.001411520781209859</v>
+        <v>0.0004177399044141934</v>
       </c>
       <c r="T12">
-        <v>0.001411520781209859</v>
+        <v>0.0004177399044141934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H13">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I13">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J13">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N13">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P13">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q13">
-        <v>0.01865134555833333</v>
+        <v>0.007376694194666665</v>
       </c>
       <c r="R13">
-        <v>0.167862110025</v>
+        <v>0.06639024775199999</v>
       </c>
       <c r="S13">
-        <v>0.002319591230157753</v>
+        <v>0.0006727878422424097</v>
       </c>
       <c r="T13">
-        <v>0.002319591230157753</v>
+        <v>0.0006727878422424098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H14">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I14">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J14">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N14">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O14">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P14">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q14">
-        <v>0.07674516315555553</v>
+        <v>0.1615640131157778</v>
       </c>
       <c r="R14">
-        <v>0.6907064683999998</v>
+        <v>1.454076118042</v>
       </c>
       <c r="S14">
-        <v>0.009544480684028458</v>
+        <v>0.01473536802525678</v>
       </c>
       <c r="T14">
-        <v>0.00954448068402846</v>
+        <v>0.01473536802525678</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H15">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I15">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J15">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>51.019709</v>
       </c>
       <c r="O15">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P15">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q15">
-        <v>2.600531256295556</v>
+        <v>2.519137813870889</v>
       </c>
       <c r="R15">
-        <v>23.40478130666</v>
+        <v>22.672240324838</v>
       </c>
       <c r="S15">
-        <v>0.3234173897528346</v>
+        <v>0.2297567513820522</v>
       </c>
       <c r="T15">
-        <v>0.3234173897528347</v>
+        <v>0.2297567513820522</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H16">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I16">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J16">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N16">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O16">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P16">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q16">
-        <v>0.0649071735711111</v>
+        <v>0.1096558504473333</v>
       </c>
       <c r="R16">
-        <v>0.5841645621399999</v>
+        <v>0.986902654026</v>
       </c>
       <c r="S16">
-        <v>0.008072238548098085</v>
+        <v>0.01000110904218546</v>
       </c>
       <c r="T16">
-        <v>0.008072238548098087</v>
+        <v>0.01000110904218546</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H17">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I17">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J17">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N17">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O17">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P17">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q17">
-        <v>0.4599046898888889</v>
+        <v>0.412388471031111</v>
       </c>
       <c r="R17">
-        <v>4.139142209</v>
+        <v>3.711496239279999</v>
       </c>
       <c r="S17">
-        <v>0.05719645706194373</v>
+        <v>0.03761169194071558</v>
       </c>
       <c r="T17">
-        <v>0.05719645706194373</v>
+        <v>0.03761169194071558</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H18">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I18">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J18">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N18">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O18">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P18">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q18">
-        <v>0.03718322167111111</v>
+        <v>0.04014719803222222</v>
       </c>
       <c r="R18">
-        <v>0.33464899504</v>
+        <v>0.36132478229</v>
       </c>
       <c r="S18">
-        <v>0.004624324536134337</v>
+        <v>0.003661605866175945</v>
       </c>
       <c r="T18">
-        <v>0.004624324536134337</v>
+        <v>0.003661605866175946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H19">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I19">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J19">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,400 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N19">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O19">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P19">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q19">
-        <v>0.0611042189711111</v>
+        <v>0.06465876601866666</v>
       </c>
       <c r="R19">
-        <v>0.5499379707399999</v>
+        <v>0.581928894168</v>
       </c>
       <c r="S19">
-        <v>0.007599280706463611</v>
+        <v>0.005897171622378921</v>
       </c>
       <c r="T19">
-        <v>0.007599280706463613</v>
+        <v>0.005897171622378922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.356621</v>
+      </c>
+      <c r="I20">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J20">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.090710333333333</v>
+      </c>
+      <c r="N20">
+        <v>3.272131</v>
+      </c>
+      <c r="O20">
+        <v>0.0488470045579656</v>
+      </c>
+      <c r="P20">
+        <v>0.0488470045579656</v>
+      </c>
+      <c r="Q20">
+        <v>0.1296567365945556</v>
+      </c>
+      <c r="R20">
+        <v>1.166910629351</v>
+      </c>
+      <c r="S20">
+        <v>0.01182528023307672</v>
+      </c>
+      <c r="T20">
+        <v>0.01182528023307672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.356621</v>
+      </c>
+      <c r="I21">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J21">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.00656966666667</v>
+      </c>
+      <c r="N21">
+        <v>51.019709</v>
+      </c>
+      <c r="O21">
+        <v>0.7616320856558244</v>
+      </c>
+      <c r="P21">
+        <v>0.7616320856558244</v>
+      </c>
+      <c r="Q21">
+        <v>2.021633293698778</v>
+      </c>
+      <c r="R21">
+        <v>18.194699643289</v>
+      </c>
+      <c r="S21">
+        <v>0.1843820911617006</v>
+      </c>
+      <c r="T21">
+        <v>0.1843820911617006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.356621</v>
+      </c>
+      <c r="I22">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J22">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.740281</v>
+      </c>
+      <c r="N22">
+        <v>2.220843</v>
+      </c>
+      <c r="O22">
+        <v>0.03315317392351528</v>
+      </c>
+      <c r="P22">
+        <v>0.03315317392351528</v>
+      </c>
+      <c r="Q22">
+        <v>0.08799991683366666</v>
+      </c>
+      <c r="R22">
+        <v>0.791999251503</v>
+      </c>
+      <c r="S22">
+        <v>0.008025990044000928</v>
+      </c>
+      <c r="T22">
+        <v>0.008025990044000928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.356621</v>
+      </c>
+      <c r="I23">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J23">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.784013333333333</v>
+      </c>
+      <c r="N23">
+        <v>8.352039999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1246808688124989</v>
+      </c>
+      <c r="P23">
+        <v>0.1246808688124989</v>
+      </c>
+      <c r="Q23">
+        <v>0.3309458729822222</v>
+      </c>
+      <c r="R23">
+        <v>2.97851285684</v>
+      </c>
+      <c r="S23">
+        <v>0.03018375899921674</v>
+      </c>
+      <c r="T23">
+        <v>0.03018375899921674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.356621</v>
+      </c>
+      <c r="I24">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J24">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2710316666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.813095</v>
+      </c>
+      <c r="O24">
+        <v>0.01213803945228936</v>
+      </c>
+      <c r="P24">
+        <v>0.01213803945228936</v>
+      </c>
+      <c r="Q24">
+        <v>0.03221852799944445</v>
+      </c>
+      <c r="R24">
+        <v>0.289966751995</v>
+      </c>
+      <c r="S24">
+        <v>0.002938475333387788</v>
+      </c>
+      <c r="T24">
+        <v>0.002938475333387788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.356621</v>
+      </c>
+      <c r="I25">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J25">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.436508</v>
+      </c>
+      <c r="N25">
+        <v>1.309524</v>
+      </c>
+      <c r="O25">
+        <v>0.01954882759790648</v>
+      </c>
+      <c r="P25">
+        <v>0.01954882759790648</v>
+      </c>
+      <c r="Q25">
+        <v>0.05188930648933333</v>
+      </c>
+      <c r="R25">
+        <v>0.467003758404</v>
+      </c>
+      <c r="S25">
+        <v>0.004732539214334499</v>
+      </c>
+      <c r="T25">
+        <v>0.004732539214334499</v>
       </c>
     </row>
   </sheetData>
